--- a/Documents/Personal files/TL/TidsrapportVecka11Tim.xlsx
+++ b/Documents/Personal files/TL/TidsrapportVecka11Tim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Tidsrapport</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>2015-03-09 - 2015-03-15</t>
+  </si>
+  <si>
+    <t>Gruppmöte</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Handleningsmöte</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Skypemöte</t>
+  </si>
+  <si>
+    <t>Läsa om Unity</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Läsa + Öva Unity</t>
+  </si>
+  <si>
+    <t>16h</t>
   </si>
 </sst>
 </file>
@@ -394,7 +421,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,40 +481,85 @@
       <c r="A9" s="1">
         <v>42072</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42073</v>
       </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42074</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42075</v>
       </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42076</v>
       </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42077</v>
       </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42078</v>
       </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
